--- a/Bill of Materials - Linda Adams - x00150170 Project.xlsx
+++ b/Bill of Materials - Linda Adams - x00150170 Project.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindaadams/Documents/GitHub/ADC-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F038EDAF-37EF-7B4B-ADE0-50120AA6B94C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5A5E9C-4CA5-5041-BCB5-D8546B63DD43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28580" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="12900" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$22</definedName>
@@ -1166,24 +1167,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="4" style="9" customWidth="1"/>
-    <col min="2" max="2" width="2.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="9" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="2" style="3" customWidth="1"/>
+    <col min="10" max="10" width="4" style="3" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="3" customWidth="1"/>
     <col min="13" max="19" width="9.1640625" style="3"/>
     <col min="20" max="20" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.1640625" style="3"/>
@@ -1475,7 +1477,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" ht="22">
+    <row r="8" spans="1:16" s="5" customFormat="1" ht="26" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="25">
         <v>7</v>
@@ -1598,7 +1600,7 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:16" s="6" customFormat="1" ht="29" customHeight="1">
       <c r="A11" s="35" t="s">
         <v>56</v>
       </c>
@@ -1711,7 +1713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="25" customHeight="1">
       <c r="A14" s="47" t="s">
         <v>57</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" ht="21" customHeight="1">
+    <row r="16" spans="1:16" s="8" customFormat="1" ht="29" customHeight="1">
       <c r="A16" s="59" t="s">
         <v>83</v>
       </c>
@@ -2075,4 +2077,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C475FC-AEC9-5B41-B13E-6572B5914727}">
+  <dimension ref="C1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="3:6">
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="F1">
+        <f>($D$1+(((C1 -$C$1)*($D$34-$D$1)/($C$34 - $C$1))))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2">
+        <v>0.1</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F34" si="0">($D$1+(((C2 -$C$1)*($D$34-$D$1)/($C$34 - $C$1))))</f>
+        <v>-0.93939393939393934</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-0.87878787878787878</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.81818181818181812</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-0.63636363636363635</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8">
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.57575757575757569</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-0.45454545454545447</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-0.39393939393939392</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13">
+        <v>1.2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <v>1.3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-0.21212121212121204</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15">
+        <v>1.4</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-0.15151515151515149</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16">
+        <v>1.5</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-9.0909090909090828E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17">
+        <v>1.6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-3.0303030303030165E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18">
+        <v>1.7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>3.0303030303030276E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19">
+        <v>1.8</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>9.090909090909105E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20">
+        <v>1.9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.1515151515151516</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.21212121212121215</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22">
+        <v>2.1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.27272727272727293</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.39393939393939381</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25">
+        <v>2.4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.45454545454545459</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26">
+        <v>2.5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.51515151515151514</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27">
+        <v>2.6</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.57575757575757591</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28">
+        <v>2.7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.63636363636363646</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29">
+        <v>2.8</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.69696969696969702</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30">
+        <v>2.9</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.75757575757575757</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181834</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32">
+        <v>3.1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.8787878787878789</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33">
+        <v>3.2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.93939393939393967</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34">
+        <v>3.3</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>